--- a/white_24V/gerber_v0p1/led_ring_BOM_JLCPCB.xlsx
+++ b/white_24V/gerber_v0p1/led_ring_BOM_JLCPCB.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -31,84 +31,42 @@
     <t xml:space="preserve">Footprint</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">LCSC Part #</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">（</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">optional</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
+    <t xml:space="preserve">LCSC Part #</t>
   </si>
   <si>
     <t xml:space="preserve">Qty</t>
   </si>
   <si>
-    <t xml:space="preserve">940nm 0805 LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED_0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C131250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75 Ohm 0805 resistor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1, R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C20638</t>
+    <t xml:space="preserve">white 0805 LED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C84258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">402 Ohm 0805 resistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C204479</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -143,27 +101,19 @@
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,12 +123,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFF200"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF200"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
@@ -233,115 +177,54 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFF200"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="4:4"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8828125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.89"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -351,46 +234,46 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>12</v>
+      <c r="E2" s="3" t="n">
+        <v>18</v>
       </c>
       <c r="F2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>805</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>2</v>
+      <c r="E3" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="F3" s="5"/>
     </row>
